--- a/log.xlsx
+++ b/log.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G4\Documents\GitHub\ec-crd\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="log" sheetId="1" r:id="rId1"/>
+    <sheet name="log" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>act_VI</t>
   </si>
@@ -210,7 +204,7 @@
     <t>act_ecu911</t>
   </si>
   <si>
-    <t/>
+    <t>NA</t>
   </si>
   <si>
     <t>act_SIPA</t>
@@ -229,16 +223,35 @@
   </si>
   <si>
     <t>cambio de UTF-8 a latin1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">act_flujo_migratorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">act_deuda_IESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">act_deuda_publica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">act_armas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">act_drogas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,8 +290,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,24 +593,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G212"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A196" workbookViewId="0">
       <selection activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="23" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -620,4605 +634,4854 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2" t="n">
         <v>45022.507792627322</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>26</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>2014</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="n">
         <v>45022.513454016203</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>85</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>3004</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>2023</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="n">
         <v>45022.513456319437</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>85</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>3005</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>2023</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="n">
         <v>45022.513458865738</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>85</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>3006</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>2023</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="n">
         <v>45022.513461423609</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>85</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>3007</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>2023</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="n">
         <v>45022.707058263892</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>84</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>1003</v>
       </c>
-      <c r="F7">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="n">
         <v>45022.70706148148</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>64</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>1004</v>
       </c>
-      <c r="F8">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="n">
         <v>45030.441760023154</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>225</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>4007</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="n">
         <v>45030.441764236108</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>75</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>4008</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>3</v>
       </c>
-      <c r="F10">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="2" t="n">
         <v>45044.453531990737</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>174</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>4009</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>2023</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="2" t="n">
         <v>45051.366919363427</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>300</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>1015</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>4</v>
       </c>
-      <c r="F12">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="2" t="n">
         <v>45051.367042418977</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>300</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>1016</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>4</v>
       </c>
-      <c r="F13">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="2" t="n">
         <v>45051.367176087973</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>300</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>1017</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>4</v>
       </c>
-      <c r="F14">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="2" t="n">
         <v>45051.367260856481</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>300</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>1018</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>4</v>
       </c>
-      <c r="F15">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="2" t="n">
         <v>45051.372097604173</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>27</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>2014</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="2" t="n">
         <v>45051.377433668982</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>86</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>3004</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>2</v>
       </c>
-      <c r="F17">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="2" t="n">
         <v>45051.377436238428</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>86</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>3005</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>2</v>
       </c>
-      <c r="F18">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="2" t="n">
         <v>45051.377438831019</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>86</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>3006</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>2</v>
       </c>
-      <c r="F19">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="2" t="n">
         <v>45051.377441435186</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>86</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>3007</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>2</v>
       </c>
-      <c r="F20">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="2" t="n">
         <v>45051.396878229163</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>228</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>4007</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>4</v>
       </c>
-      <c r="F21">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="2" t="n">
         <v>45051.396881053239</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>76</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>4008</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>4</v>
       </c>
-      <c r="F22">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="2" t="n">
         <v>45057.523073009259</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>3744</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>2008</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>4</v>
       </c>
-      <c r="F23">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="2" t="n">
         <v>45057.523089942129</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>3741</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>2009</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>4</v>
       </c>
-      <c r="F24">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="2" t="n">
         <v>45057.523105115739</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>3738</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>2010</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>4</v>
       </c>
-      <c r="F25">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="2" t="n">
         <v>45057.523121886567</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>3647</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>2011</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>4</v>
       </c>
-      <c r="F26">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="2" t="n">
         <v>45057.611839386584</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>2500</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>3019</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>4</v>
       </c>
-      <c r="F27">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="2" t="n">
         <v>45057.664989004632</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>964</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>1019</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>4</v>
       </c>
-      <c r="F28">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="2" t="n">
         <v>45057.665090115741</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>287</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>1020</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>4</v>
       </c>
-      <c r="F29">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="2" t="n">
         <v>45057.665304166672</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>273</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>1021</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>4</v>
       </c>
-      <c r="F30">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="2" t="n">
         <v>45057.665404525462</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>618</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>1022</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>4</v>
       </c>
-      <c r="F31">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="2" t="n">
         <v>45058.492511631943</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>159</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>3017</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>3</v>
       </c>
-      <c r="F32">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F32" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="2" t="n">
         <v>45058.492518379629</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>159</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>3018</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>3</v>
       </c>
-      <c r="F33">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F33" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="2" t="n">
         <v>45058.495069363416</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>110</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>3016</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>2</v>
       </c>
-      <c r="F34">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F34" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="2" t="n">
         <v>45058.496617407407</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>159</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>3015</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>3</v>
       </c>
-      <c r="F35">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F35" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="2" t="n">
         <v>45062.369686099541</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>441</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>6009</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>9</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>2021</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="2" t="n">
         <v>45062.373138206021</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>465</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>6009</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>10</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
         <v>2021</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="2" t="n">
         <v>45062.374475682867</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>485</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>6009</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>11</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>2021</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="2" t="n">
         <v>45062.375696782408</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>505</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>6009</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>12</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>2021</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="2" t="n">
         <v>45062.376926793979</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>526</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>6009</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>1</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="n">
         <v>2022</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="2" t="n">
         <v>45062.37840238426</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>547</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>6009</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>2</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>2022</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="2" t="n">
         <v>45062.383610810182</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>577</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>6009</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>3</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>2022</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="2" t="n">
         <v>45062.384474606479</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>601</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>6009</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>4</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="n">
         <v>2022</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="2" t="n">
         <v>45062.388340289363</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>631</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>6009</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>5</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>2022</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="2" t="n">
         <v>45062.390169606479</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>648</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>6009</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>6</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>2022</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="2" t="n">
         <v>45062.39091440972</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>676</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>6009</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>7</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>2022</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="2" t="n">
         <v>45062.392446863429</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>700</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>6009</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>8</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>2022</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="2" t="n">
         <v>45062.395832800918</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>725</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>6009</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>9</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>2022</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="2" t="n">
         <v>45062.396636921287</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>749</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>6009</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>10</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>2022</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="2" t="n">
         <v>45062.397437766202</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>767</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>6009</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>11</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="n">
         <v>2022</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="2" t="n">
         <v>45062.397988101853</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>788</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>6009</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>12</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="n">
         <v>2022</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="2" t="n">
         <v>45062.398668784721</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>815</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>6009</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>1</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
         <v>2023</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="2" t="n">
         <v>45062.42087736111</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>4658</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>4011</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>9</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="n">
         <v>2021</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="2" t="n">
         <v>45062.420926516214</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>1736</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>4012</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>9</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="n">
         <v>2021</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="2" t="n">
         <v>45062.422462164352</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>4880</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>4011</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>10</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
         <v>2021</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="2" t="n">
         <v>45062.422516157407</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>1819</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>4012</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>10</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="n">
         <v>2021</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="2" t="n">
         <v>45062.425071018522</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>5102</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>4011</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>11</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="n">
         <v>2021</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="2" t="n">
         <v>45062.425121296299</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>1909</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>4012</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>11</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="n">
         <v>2021</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="2" t="n">
         <v>45062.426983043981</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>5324</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>4011</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>12</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="n">
         <v>2021</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="2" t="n">
         <v>45062.427023124998</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>2001</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>4012</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>12</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
         <v>2021</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="2" t="n">
         <v>45062.439718819442</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>5547</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>4011</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>1</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="n">
         <v>2022</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="2" t="n">
         <v>45062.439757743057</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>2086</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>4012</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>1</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="n">
         <v>2022</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="2" t="n">
         <v>45062.440680162043</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>5769</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>4011</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>2</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="n">
         <v>2022</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="2" t="n">
         <v>45062.440703599539</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>2176</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>4012</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>2</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="n">
         <v>2022</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" t="s">
         <v>22</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="2" t="n">
         <v>45062.441751469909</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>5991</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>4011</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>3</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="n">
         <v>2022</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="2" t="n">
         <v>45062.441789965284</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>2266</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>4012</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>3</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="n">
         <v>2022</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="2" t="n">
         <v>45062.442785775464</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>6214</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>4011</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>4</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="n">
         <v>2022</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68" t="s">
         <v>22</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="2" t="n">
         <v>45062.442811504632</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>2351</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>4012</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>4</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="n">
         <v>2022</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="2" t="n">
         <v>45062.443865439818</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>6435</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>4011</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>5</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="n">
         <v>2022</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="A70" t="s">
         <v>22</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="2" t="n">
         <v>45062.443906608787</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>2446</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>4012</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>5</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="n">
         <v>2022</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" t="s">
         <v>22</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="2" t="n">
         <v>45062.444884629629</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>6655</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>4011</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>6</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="n">
         <v>2022</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72" t="s">
         <v>22</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="2" t="n">
         <v>45062.444921249997</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>2537</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>4012</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>6</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="n">
         <v>2022</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="2" t="n">
         <v>45062.445621307867</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>6877</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>4011</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>7</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="n">
         <v>2022</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" t="s">
         <v>22</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="2" t="n">
         <v>45062.445648726847</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>2626</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>4012</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>7</v>
       </c>
-      <c r="F74">
+      <c r="F74" t="n">
         <v>2022</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="A75" t="s">
         <v>22</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="2" t="n">
         <v>45062.446886215279</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>7099</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>4011</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>8</v>
       </c>
-      <c r="F75">
+      <c r="F75" t="n">
         <v>2022</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="2" t="n">
         <v>45062.446912013889</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>2717</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>4012</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>8</v>
       </c>
-      <c r="F76">
+      <c r="F76" t="n">
         <v>2022</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" t="s">
         <v>22</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="2" t="n">
         <v>45062.452260254628</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>7321</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>4011</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>9</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="n">
         <v>2022</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="2" t="n">
         <v>45062.452271087961</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>2797</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>4012</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>9</v>
       </c>
-      <c r="F78">
+      <c r="F78" t="n">
         <v>2022</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" t="s">
         <v>22</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="2" t="n">
         <v>45062.453015740743</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>7543</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>4011</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>10</v>
       </c>
-      <c r="F79">
+      <c r="F79" t="n">
         <v>2022</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" t="s">
         <v>22</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="2" t="n">
         <v>45062.453026817129</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>2889</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>4012</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>10</v>
       </c>
-      <c r="F80">
+      <c r="F80" t="n">
         <v>2022</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="2" t="n">
         <v>45062.453759699078</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>7765</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>4011</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>11</v>
       </c>
-      <c r="F81">
+      <c r="F81" t="n">
         <v>2022</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" t="s">
         <v>22</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="2" t="n">
         <v>45062.453770486107</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>2977</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>4012</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>11</v>
       </c>
-      <c r="F82">
+      <c r="F82" t="n">
         <v>2022</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="2" t="n">
         <v>45062.454415671287</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>7987</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>4011</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>12</v>
       </c>
-      <c r="F83">
+      <c r="F83" t="n">
         <v>2022</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" t="s">
         <v>22</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="2" t="n">
         <v>45062.454426469907</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>3064</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>4012</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>12</v>
       </c>
-      <c r="F84">
+      <c r="F84" t="n">
         <v>2022</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" t="s">
         <v>22</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="2" t="n">
         <v>45062.455282858798</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>8210</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>4011</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="n">
         <v>1</v>
       </c>
-      <c r="F85">
+      <c r="F85" t="n">
         <v>2023</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" t="s">
         <v>22</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="2" t="n">
         <v>45062.455294004627</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>3145</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>4012</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="n">
         <v>1</v>
       </c>
-      <c r="F86">
+      <c r="F86" t="n">
         <v>2023</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" t="s">
         <v>22</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="2" t="n">
         <v>45062.471743530092</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>1040</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>10002</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="n">
         <v>1</v>
       </c>
-      <c r="F87">
+      <c r="F87" t="n">
         <v>2022</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="A88" t="s">
         <v>22</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="2" t="n">
         <v>45062.471780659733</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>1052</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>10003</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="n">
         <v>1</v>
       </c>
-      <c r="F88">
+      <c r="F88" t="n">
         <v>2022</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" t="s">
         <v>22</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="2" t="n">
         <v>45062.471820300932</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>60</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>10004</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="n">
         <v>1</v>
       </c>
-      <c r="F89">
+      <c r="F89" t="n">
         <v>2022</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" t="s">
         <v>22</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="2" t="n">
         <v>45062.476913819453</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>1200</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>10002</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>2</v>
       </c>
-      <c r="F90">
+      <c r="F90" t="n">
         <v>2022</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="A91" t="s">
         <v>22</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="2" t="n">
         <v>45062.476936493047</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>1198</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>10003</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>2</v>
       </c>
-      <c r="F91">
+      <c r="F91" t="n">
         <v>2022</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" t="s">
         <v>22</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="2" t="n">
         <v>45062.476960300934</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>68</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>10004</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="n">
         <v>2</v>
       </c>
-      <c r="F92">
+      <c r="F92" t="n">
         <v>2022</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" t="s">
         <v>22</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="2" t="n">
         <v>45062.478189988433</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>1359</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>10002</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>3</v>
       </c>
-      <c r="F93">
+      <c r="F93" t="n">
         <v>2022</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" t="s">
         <v>22</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="2" t="n">
         <v>45062.478229120366</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>1340</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>10003</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="n">
         <v>3</v>
       </c>
-      <c r="F94">
+      <c r="F94" t="n">
         <v>2022</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" t="s">
         <v>22</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="2" t="n">
         <v>45062.479973657413</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>82</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>10004</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="n">
         <v>3</v>
       </c>
-      <c r="F95">
+      <c r="F95" t="n">
         <v>2022</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" t="s">
         <v>22</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="2" t="n">
         <v>45062.481002314817</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>1514</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>10002</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="n">
         <v>4</v>
       </c>
-      <c r="F96">
+      <c r="F96" t="n">
         <v>2022</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" t="s">
         <v>22</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="2" t="n">
         <v>45062.481029016213</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>1480</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>10003</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="n">
         <v>4</v>
       </c>
-      <c r="F97">
+      <c r="F97" t="n">
         <v>2022</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" t="s">
         <v>22</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="2" t="n">
         <v>45062.481053796299</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>88</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>10004</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="n">
         <v>4</v>
       </c>
-      <c r="F98">
+      <c r="F98" t="n">
         <v>2022</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" t="s">
         <v>22</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="2" t="n">
         <v>45062.481989502317</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>1672</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>10002</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="n">
         <v>5</v>
       </c>
-      <c r="F99">
+      <c r="F99" t="n">
         <v>2022</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="2" t="n">
         <v>45062.482028749997</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>1638</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>10003</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="n">
         <v>5</v>
       </c>
-      <c r="F100">
+      <c r="F100" t="n">
         <v>2022</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" t="s">
         <v>22</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="2" t="n">
         <v>45062.482067083343</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>96</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>10004</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="n">
         <v>5</v>
       </c>
-      <c r="F101">
+      <c r="F101" t="n">
         <v>2022</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" t="s">
         <v>22</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="2" t="n">
         <v>45062.482901736112</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>1827</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>10002</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>6</v>
       </c>
-      <c r="F102">
+      <c r="F102" t="n">
         <v>2022</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103">
       <c r="A103" t="s">
         <v>22</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="2" t="n">
         <v>45062.482937800924</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>1773</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>10003</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>6</v>
       </c>
-      <c r="F103">
+      <c r="F103" t="n">
         <v>2022</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="A104" t="s">
         <v>22</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="2" t="n">
         <v>45062.482973530103</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>103</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>10004</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="n">
         <v>6</v>
       </c>
-      <c r="F104">
+      <c r="F104" t="n">
         <v>2022</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105" t="s">
         <v>22</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="2" t="n">
         <v>45062.483822754628</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>1986</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="n">
         <v>10002</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="n">
         <v>7</v>
       </c>
-      <c r="F105">
+      <c r="F105" t="n">
         <v>2022</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="A106" t="s">
         <v>22</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="2" t="n">
         <v>45062.483848449083</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>1915</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="n">
         <v>10003</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="n">
         <v>7</v>
       </c>
-      <c r="F106">
+      <c r="F106" t="n">
         <v>2022</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107" t="s">
         <v>22</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="2" t="n">
         <v>45062.483874305559</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>113</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>10004</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="n">
         <v>7</v>
       </c>
-      <c r="F107">
+      <c r="F107" t="n">
         <v>2022</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="A108" t="s">
         <v>22</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="2" t="n">
         <v>45062.484792430558</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>2144</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>10002</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="n">
         <v>8</v>
       </c>
-      <c r="F108">
+      <c r="F108" t="n">
         <v>2022</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" t="s">
         <v>22</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="2" t="n">
         <v>45062.484816782409</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>2062</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="n">
         <v>10003</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="n">
         <v>8</v>
       </c>
-      <c r="F109">
+      <c r="F109" t="n">
         <v>2022</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="A110" t="s">
         <v>22</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="2" t="n">
         <v>45062.484839965276</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>124</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>10004</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="n">
         <v>8</v>
       </c>
-      <c r="F110">
+      <c r="F110" t="n">
         <v>2022</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111" t="s">
         <v>22</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="2" t="n">
         <v>45062.486247858797</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>2291</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>10002</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="n">
         <v>9</v>
       </c>
-      <c r="F111">
+      <c r="F111" t="n">
         <v>2022</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="A112" t="s">
         <v>22</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="2" t="n">
         <v>45062.4862587963</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>2214</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="n">
         <v>10003</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="n">
         <v>9</v>
       </c>
-      <c r="F112">
+      <c r="F112" t="n">
         <v>2022</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="A113" t="s">
         <v>22</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="2" t="n">
         <v>45062.486269837973</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>132</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>10004</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="n">
         <v>9</v>
       </c>
-      <c r="F113">
+      <c r="F113" t="n">
         <v>2022</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="A114" t="s">
         <v>22</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="2" t="n">
         <v>45062.487163900463</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>2440</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="n">
         <v>10002</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="n">
         <v>10</v>
       </c>
-      <c r="F114">
+      <c r="F114" t="n">
         <v>2022</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="A115" t="s">
         <v>22</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="2" t="n">
         <v>45062.487175069436</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>2370</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="n">
         <v>10003</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="n">
         <v>10</v>
       </c>
-      <c r="F115">
+      <c r="F115" t="n">
         <v>2022</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116">
       <c r="A116" t="s">
         <v>22</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="2" t="n">
         <v>45062.487184733793</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>143</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>10004</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="n">
         <v>10</v>
       </c>
-      <c r="F116">
+      <c r="F116" t="n">
         <v>2022</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117">
       <c r="A117" t="s">
         <v>22</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="2" t="n">
         <v>45062.488173680547</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>2583</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="n">
         <v>10002</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="n">
         <v>11</v>
       </c>
-      <c r="F117">
+      <c r="F117" t="n">
         <v>2022</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118">
       <c r="A118" t="s">
         <v>22</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="2" t="n">
         <v>45062.48818414352</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="n">
         <v>2523</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="n">
         <v>10003</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="n">
         <v>11</v>
       </c>
-      <c r="F118">
+      <c r="F118" t="n">
         <v>2022</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119">
       <c r="A119" t="s">
         <v>22</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="2" t="n">
         <v>45062.488193078701</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>152</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>10004</v>
       </c>
-      <c r="E119">
+      <c r="E119" t="n">
         <v>11</v>
       </c>
-      <c r="F119">
+      <c r="F119" t="n">
         <v>2022</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="A120" t="s">
         <v>22</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="2" t="n">
         <v>45062.48903034722</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>2735</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="n">
         <v>10002</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="n">
         <v>12</v>
       </c>
-      <c r="F120">
+      <c r="F120" t="n">
         <v>2022</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121">
       <c r="A121" t="s">
         <v>22</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="2" t="n">
         <v>45062.489040914363</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="n">
         <v>2675</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="n">
         <v>10003</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="n">
         <v>12</v>
       </c>
-      <c r="F121">
+      <c r="F121" t="n">
         <v>2022</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122">
       <c r="A122" t="s">
         <v>22</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="2" t="n">
         <v>45062.489050358803</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>159</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="n">
         <v>10004</v>
       </c>
-      <c r="E122">
+      <c r="E122" t="n">
         <v>12</v>
       </c>
-      <c r="F122">
+      <c r="F122" t="n">
         <v>2022</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123">
       <c r="A123" t="s">
         <v>22</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="2" t="n">
         <v>45062.490294768519</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>2881</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="n">
         <v>10002</v>
       </c>
-      <c r="E123">
+      <c r="E123" t="n">
         <v>1</v>
       </c>
-      <c r="F123">
+      <c r="F123" t="n">
         <v>2023</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124">
       <c r="A124" t="s">
         <v>22</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="2" t="n">
         <v>45062.490306157408</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>2827</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="n">
         <v>10003</v>
       </c>
-      <c r="E124">
+      <c r="E124" t="n">
         <v>1</v>
       </c>
-      <c r="F124">
+      <c r="F124" t="n">
         <v>2023</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125">
       <c r="A125" t="s">
         <v>22</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="2" t="n">
         <v>45062.490315706018</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="n">
         <v>171</v>
       </c>
-      <c r="D125">
+      <c r="D125" t="n">
         <v>10004</v>
       </c>
-      <c r="E125">
+      <c r="E125" t="n">
         <v>1</v>
       </c>
-      <c r="F125">
+      <c r="F125" t="n">
         <v>2023</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126">
       <c r="A126" t="s">
         <v>26</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="2" t="n">
         <v>45064.481756018518</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>124</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="n">
         <v>9014</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="n">
         <v>4</v>
       </c>
-      <c r="F126">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F126" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="127">
       <c r="A127" t="s">
         <v>27</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="2" t="n">
         <v>45064.511876550932</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>593</v>
       </c>
-      <c r="D127">
+      <c r="D127" t="n">
         <v>10001</v>
       </c>
-      <c r="E127">
+      <c r="E127" t="n">
         <v>4</v>
       </c>
-      <c r="F127">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F127" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="128">
       <c r="A128" t="s">
         <v>28</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="2" t="n">
         <v>45072.376653819447</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>298</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="n">
         <v>1026</v>
       </c>
-      <c r="E128">
+      <c r="E128" t="n">
         <v>4</v>
       </c>
-      <c r="F128">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F128" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="129">
       <c r="A129" t="s">
         <v>29</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="2" t="n">
         <v>45072.384980555558</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="n">
         <v>320</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="n">
         <v>3001</v>
       </c>
-      <c r="E129">
+      <c r="E129" t="n">
         <v>4</v>
       </c>
-      <c r="F129">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F129" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="130">
       <c r="A130" t="s">
         <v>29</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="2" t="n">
         <v>45072.384984236109</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>320</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="n">
         <v>3002</v>
       </c>
-      <c r="E130">
+      <c r="E130" t="n">
         <v>4</v>
       </c>
-      <c r="F130">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F130" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="131">
       <c r="A131" t="s">
         <v>29</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="2" t="n">
         <v>45072.38498800926</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="n">
         <v>320</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="n">
         <v>3003</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="n">
         <v>4</v>
       </c>
-      <c r="F131">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F131" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="132">
       <c r="A132" t="s">
         <v>29</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="2" t="n">
         <v>45072.385134583332</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>320</v>
       </c>
-      <c r="D132">
+      <c r="D132" t="n">
         <v>3025</v>
       </c>
-      <c r="E132">
+      <c r="E132" t="n">
         <v>4</v>
       </c>
-      <c r="F132">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F132" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="133">
       <c r="A133" t="s">
         <v>30</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="2" t="n">
         <v>45072.393913171298</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>631</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="n">
         <v>2018</v>
       </c>
-      <c r="E133">
+      <c r="E133" t="n">
         <v>4</v>
       </c>
-      <c r="F133">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F133" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="134">
       <c r="A134" t="s">
         <v>31</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="2" t="n">
         <v>45079.373019236111</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>198</v>
       </c>
-      <c r="D134">
+      <c r="D134" t="n">
         <v>1010</v>
       </c>
-      <c r="E134">
+      <c r="E134" t="n">
         <v>9</v>
       </c>
-      <c r="F134">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F134" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="135">
       <c r="A135" t="s">
         <v>0</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="2" t="n">
         <v>45079.489925432201</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>198</v>
       </c>
-      <c r="D135">
+      <c r="D135" t="n">
         <v>1014</v>
       </c>
-      <c r="E135">
+      <c r="E135" t="n">
         <v>9</v>
       </c>
-      <c r="F135">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F135" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="136">
       <c r="A136" t="s">
         <v>1</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="2" t="n">
         <v>45079.576031787699</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>303</v>
       </c>
-      <c r="D136">
+      <c r="D136" t="n">
         <v>1015</v>
       </c>
-      <c r="E136">
+      <c r="E136" t="n">
         <v>5</v>
       </c>
-      <c r="F136">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F136" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="137">
       <c r="A137" t="s">
         <v>1</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="2" t="n">
         <v>45079.576034166203</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>303</v>
       </c>
-      <c r="D137">
+      <c r="D137" t="n">
         <v>1016</v>
       </c>
-      <c r="E137">
+      <c r="E137" t="n">
         <v>5</v>
       </c>
-      <c r="F137">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F137" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="138">
       <c r="A138" t="s">
         <v>1</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="2" t="n">
         <v>45079.576036267703</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="n">
         <v>303</v>
       </c>
-      <c r="D138">
+      <c r="D138" t="n">
         <v>1017</v>
       </c>
-      <c r="E138">
+      <c r="E138" t="n">
         <v>5</v>
       </c>
-      <c r="F138">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F138" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="139">
       <c r="A139" t="s">
         <v>1</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="2" t="n">
         <v>45079.576038389998</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="n">
         <v>303</v>
       </c>
-      <c r="D139">
+      <c r="D139" t="n">
         <v>1018</v>
       </c>
-      <c r="E139">
+      <c r="E139" t="n">
         <v>5</v>
       </c>
-      <c r="F139">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F139" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="140">
       <c r="A140" t="s">
         <v>32</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="2" t="n">
         <v>45079.578995094198</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="n">
         <v>28</v>
       </c>
-      <c r="D140">
+      <c r="D140" t="n">
         <v>2014</v>
       </c>
-      <c r="E140">
+      <c r="E140" t="n">
         <v>3</v>
       </c>
-      <c r="F140">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F140" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="141">
       <c r="A141" t="s">
         <v>33</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="2" t="n">
         <v>45079.581339762699</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="n">
         <v>87</v>
       </c>
-      <c r="D141">
+      <c r="D141" t="n">
         <v>3004</v>
       </c>
-      <c r="E141">
+      <c r="E141" t="n">
         <v>3</v>
       </c>
-      <c r="F141">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F141" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="142">
       <c r="A142" t="s">
         <v>33</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="2" t="n">
         <v>45079.581342454498</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="n">
         <v>87</v>
       </c>
-      <c r="D142">
+      <c r="D142" t="n">
         <v>3005</v>
       </c>
-      <c r="E142">
+      <c r="E142" t="n">
         <v>3</v>
       </c>
-      <c r="F142">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F142" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="143">
       <c r="A143" t="s">
         <v>33</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="2" t="n">
         <v>45079.581345015198</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="n">
         <v>87</v>
       </c>
-      <c r="D143">
+      <c r="D143" t="n">
         <v>3006</v>
       </c>
-      <c r="E143">
+      <c r="E143" t="n">
         <v>3</v>
       </c>
-      <c r="F143">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F143" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="144">
       <c r="A144" t="s">
         <v>33</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="2" t="n">
         <v>45079.581347695501</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="n">
         <v>87</v>
       </c>
-      <c r="D144">
+      <c r="D144" t="n">
         <v>3007</v>
       </c>
-      <c r="E144">
+      <c r="E144" t="n">
         <v>3</v>
       </c>
-      <c r="F144">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F144" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="145">
       <c r="A145" t="s">
         <v>34</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="2" t="n">
         <v>45079.710229425298</v>
       </c>
-      <c r="C145">
+      <c r="C145" t="n">
         <v>174</v>
       </c>
-      <c r="D145">
+      <c r="D145" t="n">
         <v>4009</v>
       </c>
-      <c r="F145">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F145" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="146">
       <c r="A146" t="s">
         <v>35</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="2" t="n">
         <v>45079.714616664904</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="n">
         <v>122</v>
       </c>
-      <c r="D146">
+      <c r="D146" t="n">
         <v>4010</v>
       </c>
-      <c r="F146">
+      <c r="F146" t="n">
         <v>2023</v>
       </c>
       <c r="G146" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147">
       <c r="A147" t="s">
         <v>37</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="2" t="n">
         <v>45079.718785738201</v>
       </c>
-      <c r="C147">
+      <c r="C147" t="n">
         <v>1900</v>
       </c>
-      <c r="D147">
+      <c r="D147" t="n">
         <v>4002</v>
       </c>
-      <c r="E147">
+      <c r="E147" t="n">
         <v>4</v>
       </c>
-      <c r="F147">
+      <c r="F147" t="n">
         <v>2023</v>
       </c>
       <c r="G147" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148">
       <c r="A148" t="s">
         <v>37</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="2" t="n">
         <v>45079.718798704896</v>
       </c>
-      <c r="C148">
+      <c r="C148" t="n">
         <v>1882</v>
       </c>
-      <c r="D148">
+      <c r="D148" t="n">
         <v>4003</v>
       </c>
-      <c r="E148">
+      <c r="E148" t="n">
         <v>4</v>
       </c>
-      <c r="F148">
+      <c r="F148" t="n">
         <v>2023</v>
       </c>
       <c r="G148" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149">
       <c r="A149" t="s">
         <v>39</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="2" t="n">
         <v>45079.7228250138</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="n">
         <v>231</v>
       </c>
-      <c r="D149">
+      <c r="D149" t="n">
         <v>4007</v>
       </c>
-      <c r="E149">
+      <c r="E149" t="n">
         <v>5</v>
       </c>
-      <c r="F149">
+      <c r="F149" t="n">
         <v>2023</v>
       </c>
       <c r="G149" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150">
       <c r="A150" t="s">
         <v>41</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="2" t="n">
         <v>45079.7254368801</v>
       </c>
-      <c r="C150">
+      <c r="C150" t="n">
         <v>77</v>
       </c>
-      <c r="D150">
+      <c r="D150" t="n">
         <v>4008</v>
       </c>
-      <c r="E150">
+      <c r="E150" t="n">
         <v>5</v>
       </c>
-      <c r="F150">
+      <c r="F150" t="n">
         <v>2023</v>
       </c>
       <c r="G150" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151">
       <c r="A151" t="s">
         <v>43</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="2" t="n">
         <v>45086.444979902502</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="n">
         <v>3819</v>
       </c>
-      <c r="D151">
+      <c r="D151" t="n">
         <v>2008</v>
       </c>
-      <c r="E151">
+      <c r="E151" t="n">
         <v>5</v>
       </c>
-      <c r="F151">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F151" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="152">
       <c r="A152" t="s">
         <v>43</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="2" t="n">
         <v>45086.445388387699</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="n">
         <v>3816</v>
       </c>
-      <c r="D152">
+      <c r="D152" t="n">
         <v>2009</v>
       </c>
-      <c r="E152">
+      <c r="E152" t="n">
         <v>5</v>
       </c>
-      <c r="F152">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F152" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="153">
       <c r="A153" t="s">
         <v>43</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="2" t="n">
         <v>45086.445423244499</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="n">
         <v>3813</v>
       </c>
-      <c r="D153">
+      <c r="D153" t="n">
         <v>2010</v>
       </c>
-      <c r="E153">
+      <c r="E153" t="n">
         <v>5</v>
       </c>
-      <c r="F153">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F153" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="154">
       <c r="A154" t="s">
         <v>43</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="2" t="n">
         <v>45086.445473786203</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="n">
         <v>3719</v>
       </c>
-      <c r="D154">
+      <c r="D154" t="n">
         <v>2011</v>
       </c>
-      <c r="E154">
+      <c r="E154" t="n">
         <v>5</v>
       </c>
-      <c r="F154">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F154" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="155">
       <c r="A155" t="s">
         <v>44</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="2" t="n">
         <v>45086.446084816198</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="n">
         <v>989</v>
       </c>
-      <c r="D155">
+      <c r="D155" t="n">
         <v>1019</v>
       </c>
-      <c r="E155">
+      <c r="E155" t="n">
         <v>5</v>
       </c>
-      <c r="F155">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F155" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="156">
       <c r="A156" t="s">
         <v>44</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="2" t="n">
         <v>45086.446120222798</v>
       </c>
-      <c r="C156">
+      <c r="C156" t="n">
         <v>312</v>
       </c>
-      <c r="D156">
+      <c r="D156" t="n">
         <v>1020</v>
       </c>
-      <c r="E156">
+      <c r="E156" t="n">
         <v>5</v>
       </c>
-      <c r="F156">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F156" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="157">
       <c r="A157" t="s">
         <v>44</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="2" t="n">
         <v>45086.446148122697</v>
       </c>
-      <c r="C157">
+      <c r="C157" t="n">
         <v>298</v>
       </c>
-      <c r="D157">
+      <c r="D157" t="n">
         <v>1021</v>
       </c>
-      <c r="E157">
+      <c r="E157" t="n">
         <v>5</v>
       </c>
-      <c r="F157">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F157" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="158">
       <c r="A158" t="s">
         <v>44</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="2" t="n">
         <v>45086.446174647703</v>
       </c>
-      <c r="C158">
+      <c r="C158" t="n">
         <v>642</v>
       </c>
-      <c r="D158">
+      <c r="D158" t="n">
         <v>1022</v>
       </c>
-      <c r="E158">
+      <c r="E158" t="n">
         <v>5</v>
       </c>
-      <c r="F158">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F158" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="159">
       <c r="A159" t="s">
         <v>45</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="2" t="n">
         <v>45086.447135672097</v>
       </c>
-      <c r="C159">
+      <c r="C159" t="n">
         <v>641</v>
       </c>
-      <c r="D159">
+      <c r="D159" t="n">
         <v>2018</v>
       </c>
-      <c r="E159">
+      <c r="E159" t="n">
         <v>5</v>
       </c>
-      <c r="F159">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F159" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="160">
       <c r="A160" t="s">
         <v>46</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="2" t="n">
         <v>45086.448022111399</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="n">
         <v>890</v>
       </c>
-      <c r="D160">
+      <c r="D160" t="n">
         <v>3024</v>
       </c>
-      <c r="E160">
+      <c r="E160" t="n">
         <v>5</v>
       </c>
-      <c r="F160">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F160" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="161">
       <c r="A161" t="s">
         <v>46</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="2" t="n">
         <v>45086.448059551098</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="n">
         <v>890</v>
       </c>
       <c r="D161" t="s">
         <v>47</v>
       </c>
-      <c r="E161">
+      <c r="E161" t="n">
         <v>5</v>
       </c>
-      <c r="F161">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F161" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="162">
       <c r="A162" t="s">
         <v>46</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="2" t="n">
         <v>45086.448096371903</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="n">
         <v>890</v>
       </c>
       <c r="D162" t="s">
         <v>48</v>
       </c>
-      <c r="E162">
+      <c r="E162" t="n">
         <v>5</v>
       </c>
-      <c r="F162">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F162" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="163">
       <c r="A163" t="s">
         <v>46</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="2" t="n">
         <v>45086.448135598599</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="n">
         <v>890</v>
       </c>
       <c r="D163" t="s">
         <v>49</v>
       </c>
-      <c r="E163">
+      <c r="E163" t="n">
         <v>5</v>
       </c>
-      <c r="F163">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F163" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="164">
       <c r="A164" t="s">
         <v>46</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="2" t="n">
         <v>45086.448174807701</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="n">
         <v>890</v>
       </c>
       <c r="D164" t="s">
         <v>50</v>
       </c>
-      <c r="E164">
+      <c r="E164" t="n">
         <v>5</v>
       </c>
-      <c r="F164">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F164" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="165">
       <c r="A165" t="s">
         <v>51</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="2" t="n">
         <v>45086.449023191897</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="n">
         <v>2954</v>
       </c>
-      <c r="D165">
+      <c r="D165" t="n">
         <v>4001</v>
       </c>
-      <c r="E165">
+      <c r="E165" t="n">
         <v>4</v>
       </c>
-      <c r="F165">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F165" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="166">
       <c r="A166" t="s">
         <v>52</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="2" t="n">
         <v>45086.449624097899</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="n">
         <v>11</v>
       </c>
-      <c r="D166">
+      <c r="D166" t="n">
         <v>5004</v>
       </c>
-      <c r="F166">
+      <c r="F166" t="n">
         <v>2022</v>
       </c>
       <c r="G166" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167">
       <c r="A167" t="s">
         <v>53</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="2" t="n">
         <v>45086.450702183203</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="n">
         <v>1610</v>
       </c>
-      <c r="D167">
+      <c r="D167" t="n">
         <v>9004</v>
       </c>
-      <c r="E167">
+      <c r="E167" t="n">
         <v>5</v>
       </c>
-      <c r="F167">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F167" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="168">
       <c r="A168" t="s">
         <v>53</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="2" t="n">
         <v>45086.450744939502</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="n">
         <v>1610</v>
       </c>
       <c r="D168" t="s">
         <v>54</v>
       </c>
-      <c r="E168">
+      <c r="E168" t="n">
         <v>5</v>
       </c>
-      <c r="F168">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F168" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="169">
       <c r="A169" t="s">
         <v>53</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="2" t="n">
         <v>45086.450784415902</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="n">
         <v>1610</v>
       </c>
       <c r="D169" t="s">
         <v>55</v>
       </c>
-      <c r="E169">
+      <c r="E169" t="n">
         <v>5</v>
       </c>
-      <c r="F169">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F169" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="170">
       <c r="A170" t="s">
         <v>53</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="2" t="n">
         <v>45086.450820054903</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="n">
         <v>1610</v>
       </c>
       <c r="D170" t="s">
         <v>56</v>
       </c>
-      <c r="E170">
+      <c r="E170" t="n">
         <v>5</v>
       </c>
-      <c r="F170">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F170" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="171">
       <c r="A171" t="s">
         <v>53</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" s="2" t="n">
         <v>45086.450870178502</v>
       </c>
-      <c r="C171">
+      <c r="C171" t="n">
         <v>1610</v>
       </c>
       <c r="D171" t="s">
         <v>57</v>
       </c>
-      <c r="E171">
+      <c r="E171" t="n">
         <v>5</v>
       </c>
-      <c r="F171">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F171" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="172">
       <c r="A172" t="s">
         <v>53</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="2" t="n">
         <v>45086.450900346601</v>
       </c>
-      <c r="C172">
+      <c r="C172" t="n">
         <v>1610</v>
       </c>
       <c r="D172" t="s">
         <v>58</v>
       </c>
-      <c r="E172">
+      <c r="E172" t="n">
         <v>5</v>
       </c>
-      <c r="F172">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F172" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="173">
       <c r="A173" t="s">
         <v>53</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="2" t="n">
         <v>45086.450941639203</v>
       </c>
-      <c r="C173">
+      <c r="C173" t="n">
         <v>1610</v>
       </c>
       <c r="D173" t="s">
         <v>59</v>
       </c>
-      <c r="E173">
+      <c r="E173" t="n">
         <v>5</v>
       </c>
-      <c r="F173">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F173" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="174">
       <c r="A174" t="s">
         <v>53</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" s="2" t="n">
         <v>45086.450964686599</v>
       </c>
-      <c r="C174">
+      <c r="C174" t="n">
         <v>1610</v>
       </c>
       <c r="D174" t="s">
         <v>60</v>
       </c>
-      <c r="E174">
+      <c r="E174" t="n">
         <v>5</v>
       </c>
-      <c r="F174">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F174" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="175">
       <c r="A175" t="s">
         <v>61</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="2" t="n">
         <v>45086.452616273098</v>
       </c>
-      <c r="C175">
+      <c r="C175" t="n">
         <v>216</v>
       </c>
-      <c r="D175">
+      <c r="D175" t="n">
         <v>9005</v>
       </c>
-      <c r="F175">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F175" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="176">
       <c r="A176" t="s">
         <v>61</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="2" t="n">
         <v>45086.452631814398</v>
       </c>
-      <c r="C176">
+      <c r="C176" t="n">
         <v>216</v>
       </c>
-      <c r="D176">
+      <c r="D176" t="n">
         <v>9006</v>
       </c>
-      <c r="F176">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F176" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="177">
       <c r="A177" t="s">
         <v>61</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="2" t="n">
         <v>45086.4526590592</v>
       </c>
-      <c r="C177">
+      <c r="C177" t="n">
         <v>216</v>
       </c>
-      <c r="D177">
+      <c r="D177" t="n">
         <v>9007</v>
       </c>
-      <c r="F177">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F177" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="178">
       <c r="A178" t="s">
         <v>62</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" s="2" t="n">
         <v>45091.514807873202</v>
       </c>
-      <c r="C178">
+      <c r="C178" t="n">
         <v>694</v>
       </c>
-      <c r="D178">
+      <c r="D178" t="n">
         <v>2017</v>
       </c>
-      <c r="E178">
+      <c r="E178" t="n">
         <v>2</v>
       </c>
-      <c r="F178">
+      <c r="F178" t="n">
         <v>2023</v>
       </c>
       <c r="G178" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179">
       <c r="A179" t="s">
         <v>62</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179" s="2" t="n">
         <v>45091.515602636398</v>
       </c>
-      <c r="C179">
+      <c r="C179" t="n">
         <v>714</v>
       </c>
-      <c r="D179">
+      <c r="D179" t="n">
         <v>2017</v>
       </c>
-      <c r="E179">
+      <c r="E179" t="n">
         <v>3</v>
       </c>
-      <c r="F179">
+      <c r="F179" t="n">
         <v>2023</v>
       </c>
       <c r="G179" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180">
       <c r="A180" t="s">
         <v>62</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" s="2" t="n">
         <v>45091.516202501298</v>
       </c>
-      <c r="C180">
+      <c r="C180" t="n">
         <v>730</v>
       </c>
-      <c r="D180">
+      <c r="D180" t="n">
         <v>2017</v>
       </c>
-      <c r="E180">
+      <c r="E180" t="n">
         <v>4</v>
       </c>
-      <c r="F180">
+      <c r="F180" t="n">
         <v>2023</v>
       </c>
       <c r="G180" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181">
       <c r="A181" t="s">
         <v>62</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="2" t="n">
         <v>45091.516744643603</v>
       </c>
-      <c r="C181">
+      <c r="C181" t="n">
         <v>752</v>
       </c>
-      <c r="D181">
+      <c r="D181" t="n">
         <v>2017</v>
       </c>
-      <c r="E181">
+      <c r="E181" t="n">
         <v>5</v>
       </c>
-      <c r="F181">
+      <c r="F181" t="n">
         <v>2023</v>
       </c>
       <c r="G181" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182">
       <c r="A182" t="s">
         <v>62</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182" s="2" t="n">
         <v>45091.517774077598</v>
       </c>
-      <c r="C182">
+      <c r="C182" t="n">
         <v>950</v>
       </c>
-      <c r="D182">
+      <c r="D182" t="n">
         <v>4011</v>
       </c>
-      <c r="E182">
+      <c r="E182" t="n">
         <v>2</v>
       </c>
-      <c r="F182">
+      <c r="F182" t="n">
         <v>2023</v>
       </c>
       <c r="G182" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183">
       <c r="A183" t="s">
         <v>62</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" s="2" t="n">
         <v>45091.517836010797</v>
       </c>
-      <c r="C183">
+      <c r="C183" t="n">
         <v>713</v>
       </c>
-      <c r="D183">
+      <c r="D183" t="n">
         <v>4012</v>
       </c>
-      <c r="E183">
+      <c r="E183" t="n">
         <v>2</v>
       </c>
-      <c r="F183">
+      <c r="F183" t="n">
         <v>2023</v>
       </c>
       <c r="G183" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184">
       <c r="A184" t="s">
         <v>62</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184" s="2" t="n">
         <v>45091.518544587103</v>
       </c>
-      <c r="C184">
+      <c r="C184" t="n">
         <v>975</v>
       </c>
-      <c r="D184">
+      <c r="D184" t="n">
         <v>4011</v>
       </c>
-      <c r="E184">
+      <c r="E184" t="n">
         <v>3</v>
       </c>
-      <c r="F184">
+      <c r="F184" t="n">
         <v>2023</v>
       </c>
       <c r="G184" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185">
       <c r="A185" t="s">
         <v>62</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="2" t="n">
         <v>45091.518602316297</v>
       </c>
-      <c r="C185">
+      <c r="C185" t="n">
         <v>733</v>
       </c>
-      <c r="D185">
+      <c r="D185" t="n">
         <v>4012</v>
       </c>
-      <c r="E185">
+      <c r="E185" t="n">
         <v>3</v>
       </c>
-      <c r="F185">
+      <c r="F185" t="n">
         <v>2023</v>
       </c>
       <c r="G185" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186">
       <c r="A186" t="s">
         <v>62</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186" s="2" t="n">
         <v>45091.519231844402</v>
       </c>
-      <c r="C186">
+      <c r="C186" t="n">
         <v>1000</v>
       </c>
-      <c r="D186">
+      <c r="D186" t="n">
         <v>4011</v>
       </c>
-      <c r="E186">
+      <c r="E186" t="n">
         <v>4</v>
       </c>
-      <c r="F186">
+      <c r="F186" t="n">
         <v>2023</v>
       </c>
       <c r="G186" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187">
       <c r="A187" t="s">
         <v>62</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" s="2" t="n">
         <v>45091.519279589702</v>
       </c>
-      <c r="C187">
+      <c r="C187" t="n">
         <v>754</v>
       </c>
-      <c r="D187">
+      <c r="D187" t="n">
         <v>4012</v>
       </c>
-      <c r="E187">
+      <c r="E187" t="n">
         <v>4</v>
       </c>
-      <c r="F187">
+      <c r="F187" t="n">
         <v>2023</v>
       </c>
       <c r="G187" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188">
       <c r="A188" t="s">
         <v>62</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188" s="2" t="n">
         <v>45091.519765239602</v>
       </c>
-      <c r="C188">
+      <c r="C188" t="n">
         <v>1025</v>
       </c>
-      <c r="D188">
+      <c r="D188" t="n">
         <v>4011</v>
       </c>
-      <c r="E188">
+      <c r="E188" t="n">
         <v>5</v>
       </c>
-      <c r="F188">
+      <c r="F188" t="n">
         <v>2023</v>
       </c>
       <c r="G188" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189">
       <c r="A189" t="s">
         <v>62</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189" s="2" t="n">
         <v>45091.519816207401</v>
       </c>
-      <c r="C189">
+      <c r="C189" t="n">
         <v>774</v>
       </c>
-      <c r="D189">
+      <c r="D189" t="n">
         <v>4012</v>
       </c>
-      <c r="E189">
+      <c r="E189" t="n">
         <v>5</v>
       </c>
-      <c r="F189">
+      <c r="F189" t="n">
         <v>2023</v>
       </c>
       <c r="G189" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190">
       <c r="A190" t="s">
         <v>62</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190" s="2" t="n">
         <v>45091.520140369903</v>
       </c>
-      <c r="C190">
+      <c r="C190" t="n">
         <v>560</v>
       </c>
-      <c r="D190">
+      <c r="D190" t="n">
         <v>6009</v>
       </c>
-      <c r="E190">
+      <c r="E190" t="n">
         <v>2</v>
       </c>
-      <c r="F190">
+      <c r="F190" t="n">
         <v>2023</v>
       </c>
       <c r="G190" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191">
       <c r="A191" t="s">
         <v>62</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191" s="2" t="n">
         <v>45091.520341323201</v>
       </c>
-      <c r="C191">
+      <c r="C191" t="n">
         <v>570</v>
       </c>
-      <c r="D191">
+      <c r="D191" t="n">
         <v>6009</v>
       </c>
-      <c r="E191">
+      <c r="E191" t="n">
         <v>3</v>
       </c>
-      <c r="F191">
+      <c r="F191" t="n">
         <v>2023</v>
       </c>
       <c r="G191" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192">
       <c r="A192" t="s">
         <v>62</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192" s="2" t="n">
         <v>45091.520490169503</v>
       </c>
-      <c r="C192">
+      <c r="C192" t="n">
         <v>587</v>
       </c>
-      <c r="D192">
+      <c r="D192" t="n">
         <v>6009</v>
       </c>
-      <c r="E192">
+      <c r="E192" t="n">
         <v>4</v>
       </c>
-      <c r="F192">
+      <c r="F192" t="n">
         <v>2023</v>
       </c>
       <c r="G192" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193">
       <c r="A193" t="s">
         <v>62</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" s="2" t="n">
         <v>45091.520647621299</v>
       </c>
-      <c r="C193">
+      <c r="C193" t="n">
         <v>602</v>
       </c>
-      <c r="D193">
+      <c r="D193" t="n">
         <v>6009</v>
       </c>
-      <c r="E193">
+      <c r="E193" t="n">
         <v>5</v>
       </c>
-      <c r="F193">
+      <c r="F193" t="n">
         <v>2023</v>
       </c>
       <c r="G193" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194">
       <c r="A194" t="s">
         <v>62</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194" s="2" t="n">
         <v>45091.521237828601</v>
       </c>
-      <c r="C194">
+      <c r="C194" t="n">
         <v>494</v>
       </c>
-      <c r="D194">
+      <c r="D194" t="n">
         <v>10002</v>
       </c>
-      <c r="E194">
+      <c r="E194" t="n">
         <v>2</v>
       </c>
-      <c r="F194">
+      <c r="F194" t="n">
         <v>2023</v>
       </c>
       <c r="G194" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195">
       <c r="A195" t="s">
         <v>62</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195" s="2" t="n">
         <v>45091.521282433299</v>
       </c>
-      <c r="C195">
+      <c r="C195" t="n">
         <v>499</v>
       </c>
-      <c r="D195">
+      <c r="D195" t="n">
         <v>10003</v>
       </c>
-      <c r="E195">
+      <c r="E195" t="n">
         <v>2</v>
       </c>
-      <c r="F195">
+      <c r="F195" t="n">
         <v>2023</v>
       </c>
       <c r="G195" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196">
       <c r="A196" t="s">
         <v>62</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196" s="2" t="n">
         <v>45091.5213375479</v>
       </c>
-      <c r="C196">
+      <c r="C196" t="n">
         <v>137</v>
       </c>
-      <c r="D196">
+      <c r="D196" t="n">
         <v>10004</v>
       </c>
-      <c r="E196">
+      <c r="E196" t="n">
         <v>2</v>
       </c>
-      <c r="F196">
+      <c r="F196" t="n">
         <v>2023</v>
       </c>
       <c r="G196" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197">
       <c r="A197" t="s">
         <v>62</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197" s="2" t="n">
         <v>45091.521579888897</v>
       </c>
-      <c r="C197">
+      <c r="C197" t="n">
         <v>518</v>
       </c>
-      <c r="D197">
+      <c r="D197" t="n">
         <v>10002</v>
       </c>
-      <c r="E197">
+      <c r="E197" t="n">
         <v>3</v>
       </c>
-      <c r="F197">
+      <c r="F197" t="n">
         <v>2023</v>
       </c>
       <c r="G197" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198">
       <c r="A198" t="s">
         <v>62</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198" s="2" t="n">
         <v>45091.521630045201</v>
       </c>
-      <c r="C198">
+      <c r="C198" t="n">
         <v>524</v>
       </c>
-      <c r="D198">
+      <c r="D198" t="n">
         <v>10003</v>
       </c>
-      <c r="E198">
+      <c r="E198" t="n">
         <v>3</v>
       </c>
-      <c r="F198">
+      <c r="F198" t="n">
         <v>2023</v>
       </c>
       <c r="G198" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199">
       <c r="A199" t="s">
         <v>62</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199" s="2" t="n">
         <v>45091.521670743103</v>
       </c>
-      <c r="C199">
+      <c r="C199" t="n">
         <v>146</v>
       </c>
-      <c r="D199">
+      <c r="D199" t="n">
         <v>10004</v>
       </c>
-      <c r="E199">
+      <c r="E199" t="n">
         <v>3</v>
       </c>
-      <c r="F199">
+      <c r="F199" t="n">
         <v>2023</v>
       </c>
       <c r="G199" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200">
       <c r="A200" t="s">
         <v>62</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200" s="2" t="n">
         <v>45091.521852225502</v>
       </c>
-      <c r="C200">
+      <c r="C200" t="n">
         <v>543</v>
       </c>
-      <c r="D200">
+      <c r="D200" t="n">
         <v>10002</v>
       </c>
-      <c r="E200">
+      <c r="E200" t="n">
         <v>4</v>
       </c>
-      <c r="F200">
+      <c r="F200" t="n">
         <v>2023</v>
       </c>
       <c r="G200" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201">
       <c r="A201" t="s">
         <v>62</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201" s="2" t="n">
         <v>45091.521903707202</v>
       </c>
-      <c r="C201">
+      <c r="C201" t="n">
         <v>549</v>
       </c>
-      <c r="D201">
+      <c r="D201" t="n">
         <v>10003</v>
       </c>
-      <c r="E201">
+      <c r="E201" t="n">
         <v>4</v>
       </c>
-      <c r="F201">
+      <c r="F201" t="n">
         <v>2023</v>
       </c>
       <c r="G201" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202">
       <c r="A202" t="s">
         <v>62</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B202" s="2" t="n">
         <v>45091.5219520795</v>
       </c>
-      <c r="C202">
+      <c r="C202" t="n">
         <v>152</v>
       </c>
-      <c r="D202">
+      <c r="D202" t="n">
         <v>10004</v>
       </c>
-      <c r="E202">
+      <c r="E202" t="n">
         <v>4</v>
       </c>
-      <c r="F202">
+      <c r="F202" t="n">
         <v>2023</v>
       </c>
       <c r="G202" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203">
       <c r="A203" t="s">
         <v>62</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B203" s="2" t="n">
         <v>45091.522129330202</v>
       </c>
-      <c r="C203">
+      <c r="C203" t="n">
         <v>567</v>
       </c>
-      <c r="D203">
+      <c r="D203" t="n">
         <v>10002</v>
       </c>
-      <c r="E203">
+      <c r="E203" t="n">
         <v>5</v>
       </c>
-      <c r="F203">
+      <c r="F203" t="n">
         <v>2023</v>
       </c>
       <c r="G203" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204">
       <c r="A204" t="s">
         <v>62</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B204" s="2" t="n">
         <v>45091.522177397797</v>
       </c>
-      <c r="C204">
+      <c r="C204" t="n">
         <v>574</v>
       </c>
-      <c r="D204">
+      <c r="D204" t="n">
         <v>10003</v>
       </c>
-      <c r="E204">
+      <c r="E204" t="n">
         <v>5</v>
       </c>
-      <c r="F204">
+      <c r="F204" t="n">
         <v>2023</v>
       </c>
       <c r="G204" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205">
       <c r="A205" t="s">
         <v>62</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B205" s="2" t="n">
         <v>45091.5222192336</v>
       </c>
-      <c r="C205">
+      <c r="C205" t="n">
         <v>159</v>
       </c>
-      <c r="D205">
+      <c r="D205" t="n">
         <v>10004</v>
       </c>
-      <c r="E205">
+      <c r="E205" t="n">
         <v>5</v>
       </c>
-      <c r="F205">
+      <c r="F205" t="n">
         <v>2023</v>
       </c>
       <c r="G205" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206">
       <c r="A206" t="s">
         <v>64</v>
       </c>
-      <c r="B206" s="3">
+      <c r="B206" s="2" t="n">
         <v>45091.523313516896</v>
       </c>
-      <c r="C206">
+      <c r="C206" t="n">
         <v>125</v>
       </c>
-      <c r="D206">
+      <c r="D206" t="n">
         <v>9014</v>
       </c>
-      <c r="E206">
+      <c r="E206" t="n">
         <v>5</v>
       </c>
-      <c r="F206">
+      <c r="F206" t="n">
         <v>2023</v>
       </c>
       <c r="G206" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207">
       <c r="A207" t="s">
         <v>65</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B207" s="2" t="n">
         <v>45091.5243018326</v>
       </c>
-      <c r="C207">
+      <c r="C207" t="n">
         <v>160</v>
       </c>
-      <c r="D207">
+      <c r="D207" t="n">
         <v>3015</v>
       </c>
-      <c r="E207">
+      <c r="E207" t="n">
         <v>4</v>
       </c>
-      <c r="F207">
+      <c r="F207" t="n">
         <v>2023</v>
       </c>
       <c r="G207" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208">
       <c r="A208" t="s">
         <v>65</v>
       </c>
-      <c r="B208" s="3">
+      <c r="B208" s="2" t="n">
         <v>45091.525059934298</v>
       </c>
-      <c r="C208">
+      <c r="C208" t="n">
         <v>160</v>
       </c>
-      <c r="D208">
+      <c r="D208" t="n">
         <v>3017</v>
       </c>
-      <c r="E208">
+      <c r="E208" t="n">
         <v>4</v>
       </c>
-      <c r="F208">
+      <c r="F208" t="n">
         <v>2023</v>
       </c>
       <c r="G208" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209">
       <c r="A209" t="s">
         <v>65</v>
       </c>
-      <c r="B209" s="3">
+      <c r="B209" s="2" t="n">
         <v>45091.525073190998</v>
       </c>
-      <c r="C209">
+      <c r="C209" t="n">
         <v>160</v>
       </c>
-      <c r="D209">
+      <c r="D209" t="n">
         <v>3018</v>
       </c>
-      <c r="E209">
+      <c r="E209" t="n">
         <v>4</v>
       </c>
-      <c r="F209">
+      <c r="F209" t="n">
         <v>2023</v>
       </c>
       <c r="G209" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210">
       <c r="A210" t="s">
         <v>66</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B210" s="2" t="n">
         <v>45091.525557801397</v>
       </c>
-      <c r="C210">
+      <c r="C210" t="n">
         <v>111</v>
       </c>
-      <c r="D210">
+      <c r="D210" t="n">
         <v>3016</v>
       </c>
-      <c r="E210">
+      <c r="E210" t="n">
         <v>3</v>
       </c>
-      <c r="F210">
+      <c r="F210" t="n">
         <v>2023</v>
       </c>
       <c r="G210" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211">
       <c r="A211" t="s">
         <v>67</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B211" s="2" t="n">
         <v>45091.526153640902</v>
       </c>
-      <c r="C211">
+      <c r="C211" t="n">
         <v>2520</v>
       </c>
-      <c r="D211">
+      <c r="D211" t="n">
         <v>3019</v>
       </c>
-      <c r="E211">
+      <c r="E211" t="n">
         <v>5</v>
       </c>
-      <c r="F211">
+      <c r="F211" t="n">
         <v>2023</v>
       </c>
       <c r="G211" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212">
       <c r="A212" t="s">
         <v>68</v>
       </c>
-      <c r="B212" s="3">
+      <c r="B212" s="2" t="n">
         <v>45091.5269239728</v>
       </c>
-      <c r="C212">
+      <c r="C212" t="n">
         <v>598</v>
       </c>
-      <c r="D212">
+      <c r="D212" t="n">
         <v>10001</v>
       </c>
-      <c r="E212">
+      <c r="E212" t="n">
         <v>5</v>
       </c>
-      <c r="F212">
+      <c r="F212" t="n">
         <v>2023</v>
       </c>
       <c r="G212" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>70</v>
+      </c>
+      <c r="B213" s="3" t="n">
+        <v>45092.4044470473</v>
+      </c>
+      <c r="C213" t="n">
+        <v>303</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1015</v>
+      </c>
+      <c r="E213" t="n">
+        <v>5</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G213" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>70</v>
+      </c>
+      <c r="B214" s="3" t="n">
+        <v>45092.4044507623</v>
+      </c>
+      <c r="C214" t="n">
+        <v>303</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1016</v>
+      </c>
+      <c r="E214" t="n">
+        <v>5</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G214" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>70</v>
+      </c>
+      <c r="B215" s="3" t="n">
+        <v>45092.4044534218</v>
+      </c>
+      <c r="C215" t="n">
+        <v>303</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1017</v>
+      </c>
+      <c r="E215" t="n">
+        <v>5</v>
+      </c>
+      <c r="F215" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G215" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>70</v>
+      </c>
+      <c r="B216" s="3" t="n">
+        <v>45092.4044560614</v>
+      </c>
+      <c r="C216" t="n">
+        <v>303</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1018</v>
+      </c>
+      <c r="E216" t="n">
+        <v>5</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G216" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>72</v>
+      </c>
+      <c r="B217" s="3" t="n">
+        <v>45092.4068694882</v>
+      </c>
+      <c r="C217" t="n">
+        <v>28</v>
+      </c>
+      <c r="D217" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E217" t="n">
+        <v>3</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G217" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>73</v>
+      </c>
+      <c r="B218" s="3" t="n">
+        <v>45092.4074156097</v>
+      </c>
+      <c r="C218" t="n">
+        <v>87</v>
+      </c>
+      <c r="D218" t="n">
+        <v>3004</v>
+      </c>
+      <c r="E218" t="n">
+        <v>3</v>
+      </c>
+      <c r="F218" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G218" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>73</v>
+      </c>
+      <c r="B219" s="3" t="n">
+        <v>45092.4074191316</v>
+      </c>
+      <c r="C219" t="n">
+        <v>87</v>
+      </c>
+      <c r="D219" t="n">
+        <v>3005</v>
+      </c>
+      <c r="E219" t="n">
+        <v>3</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G219" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>73</v>
+      </c>
+      <c r="B220" s="3" t="n">
+        <v>45092.4074222646</v>
+      </c>
+      <c r="C220" t="n">
+        <v>87</v>
+      </c>
+      <c r="D220" t="n">
+        <v>3006</v>
+      </c>
+      <c r="E220" t="n">
+        <v>3</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G220" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>73</v>
+      </c>
+      <c r="B221" s="3" t="n">
+        <v>45092.4074253247</v>
+      </c>
+      <c r="C221" t="n">
+        <v>87</v>
+      </c>
+      <c r="D221" t="n">
+        <v>3007</v>
+      </c>
+      <c r="E221" t="n">
+        <v>3</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G221" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>74</v>
+      </c>
+      <c r="B222" s="3" t="n">
+        <v>45092.4101395365</v>
+      </c>
+      <c r="C222" t="n">
+        <v>174</v>
+      </c>
+      <c r="D222" t="n">
+        <v>4009</v>
+      </c>
+      <c r="E222"/>
+      <c r="F222" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G222" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>75</v>
+      </c>
+      <c r="B223" s="3" t="n">
+        <v>45092.4101431402</v>
+      </c>
+      <c r="C223" t="n">
+        <v>122</v>
+      </c>
+      <c r="D223" t="n">
+        <v>4010</v>
+      </c>
+      <c r="E223"/>
+      <c r="F223" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G223" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
